--- a/Intervention_Database-1.xlsx
+++ b/Intervention_Database-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZhouH\OneDrive - University of KwaZulu-Natal\Documents\My Staff\Quantilytix\Tenders\Rustenburg Epont ESD\Implementation Phase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\Quant-Files\epont-dash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94795166-9870-4B02-934C-50BB90352C9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306E39BF-4D16-4DF3-9A60-E43ECA1E8C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9255" xr2:uid="{0F3DE8D1-45ED-49E4-AA5E-3BAC350054F1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{0F3DE8D1-45ED-49E4-AA5E-3BAC350054F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Interventions" sheetId="1" r:id="rId1"/>
@@ -401,8 +401,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;R&quot;#,##0.00;[Red]\-&quot;R&quot;#,##0.00"/>
-    <numFmt numFmtId="169" formatCode="_-&quot;R&quot;* #,##0.00_-;\-&quot;R&quot;* #,##0.00_-;_-&quot;R&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-&quot;R&quot;* #,##0_-;\-&quot;R&quot;* #,##0_-;_-&quot;R&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;R&quot;* #,##0.00_-;\-&quot;R&quot;* #,##0.00_-;_-&quot;R&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-&quot;R&quot;* #,##0_-;\-&quot;R&quot;* #,##0_-;_-&quot;R&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -479,64 +479,35 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -857,19 +828,20 @@
   <dimension ref="A1:G175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G168" sqref="G168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.796875" customWidth="1"/>
-    <col min="4" max="4" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.06640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -892,7 +864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -912,7 +884,7 @@
         <v>45562</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -932,7 +904,7 @@
         <v>45562</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -952,7 +924,7 @@
         <v>45562</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -972,7 +944,7 @@
         <v>45562</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -992,7 +964,7 @@
         <v>45562</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1012,7 +984,7 @@
         <v>45562</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1032,7 +1004,7 @@
         <v>45555</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1052,7 +1024,7 @@
         <v>45555</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1072,7 +1044,7 @@
         <v>45555</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1092,7 +1064,7 @@
         <v>45555</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1112,7 +1084,7 @@
         <v>45555</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1132,7 +1104,7 @@
         <v>45555</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1152,7 +1124,7 @@
         <v>45562</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1172,7 +1144,7 @@
         <v>45562</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1192,7 +1164,7 @@
         <v>45562</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -1212,7 +1184,7 @@
         <v>45562</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1232,7 +1204,7 @@
         <v>45562</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1252,7 +1224,7 @@
         <v>45562</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -1272,7 +1244,7 @@
         <v>45562</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1292,7 +1264,7 @@
         <v>45562</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1312,7 +1284,7 @@
         <v>45562</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -1332,7 +1304,7 @@
         <v>45562</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1352,7 +1324,7 @@
         <v>45562</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -1372,7 +1344,7 @@
         <v>45562</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1392,7 +1364,7 @@
         <v>45558</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1412,7 +1384,7 @@
         <v>45558</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -1432,7 +1404,7 @@
         <v>45558</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -1452,7 +1424,7 @@
         <v>45558</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -1472,7 +1444,7 @@
         <v>45558</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -1492,7 +1464,7 @@
         <v>45558</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -1512,7 +1484,7 @@
         <v>45572</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1532,7 +1504,7 @@
         <v>45572</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -1552,7 +1524,7 @@
         <v>45572</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -1572,7 +1544,7 @@
         <v>45572</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -1592,7 +1564,7 @@
         <v>45572</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -1612,7 +1584,7 @@
         <v>45572</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -1632,7 +1604,7 @@
         <v>45585</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -1652,7 +1624,7 @@
         <v>45585</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -1672,7 +1644,7 @@
         <v>45585</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -1692,7 +1664,7 @@
         <v>45585</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -1712,7 +1684,7 @@
         <v>45585</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -1732,7 +1704,7 @@
         <v>45585</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -1752,7 +1724,7 @@
         <v>45594</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -1772,7 +1744,7 @@
         <v>45594</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -1792,7 +1764,7 @@
         <v>45594</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -1812,7 +1784,7 @@
         <v>45594</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -1832,7 +1804,7 @@
         <v>45594</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -1852,7 +1824,7 @@
         <v>45594</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -1872,7 +1844,7 @@
         <v>45594</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -1892,7 +1864,7 @@
         <v>45594</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -1912,7 +1884,7 @@
         <v>45594</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -1932,7 +1904,7 @@
         <v>45594</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -1952,7 +1924,7 @@
         <v>45594</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -1972,7 +1944,7 @@
         <v>45594</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -1992,7 +1964,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -2012,7 +1984,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -2032,7 +2004,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -2052,7 +2024,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -2072,7 +2044,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -2092,7 +2064,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -2112,7 +2084,7 @@
         <v>45583</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -2132,7 +2104,7 @@
         <v>45583</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -2152,7 +2124,7 @@
         <v>45583</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -2172,7 +2144,7 @@
         <v>45583</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -2192,7 +2164,7 @@
         <v>45583</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -2212,7 +2184,7 @@
         <v>45583</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -2235,7 +2207,7 @@
         <v>45584</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -2258,7 +2230,7 @@
         <v>45584</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -2281,7 +2253,7 @@
         <v>45584</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -2304,7 +2276,7 @@
         <v>45590</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -2327,7 +2299,7 @@
         <v>45590</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -2350,7 +2322,7 @@
         <v>45590</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -2370,7 +2342,7 @@
         <v>45590</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -2390,7 +2362,7 @@
         <v>45590</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -2410,7 +2382,7 @@
         <v>45590</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>9</v>
       </c>
@@ -2430,7 +2402,7 @@
         <v>45590</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -2450,7 +2422,7 @@
         <v>45590</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>10</v>
       </c>
@@ -2470,7 +2442,7 @@
         <v>45590</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>6</v>
       </c>
@@ -2493,7 +2465,7 @@
         <v>45605</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>8</v>
       </c>
@@ -2516,7 +2488,7 @@
         <v>45605</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>9</v>
       </c>
@@ -2539,7 +2511,7 @@
         <v>45605</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>5</v>
       </c>
@@ -2562,7 +2534,7 @@
         <v>45605</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>10</v>
       </c>
@@ -2585,7 +2557,7 @@
         <v>45605</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>6</v>
       </c>
@@ -2608,7 +2580,7 @@
         <v>45608</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -2631,7 +2603,7 @@
         <v>45608</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>8</v>
       </c>
@@ -2654,7 +2626,7 @@
         <v>45608</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>9</v>
       </c>
@@ -2677,7 +2649,7 @@
         <v>45608</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>5</v>
       </c>
@@ -2700,7 +2672,7 @@
         <v>45608</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>6</v>
       </c>
@@ -2723,7 +2695,7 @@
         <v>45615</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>10</v>
       </c>
@@ -2746,7 +2718,7 @@
         <v>45615</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>8</v>
       </c>
@@ -2769,7 +2741,7 @@
         <v>45615</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -2792,7 +2764,7 @@
         <v>45615</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>5</v>
       </c>
@@ -2815,7 +2787,7 @@
         <v>45615</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>6</v>
       </c>
@@ -2838,7 +2810,7 @@
         <v>45617</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>8</v>
       </c>
@@ -2861,7 +2833,7 @@
         <v>45617</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>9</v>
       </c>
@@ -2884,7 +2856,7 @@
         <v>45617</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>5</v>
       </c>
@@ -2907,7 +2879,7 @@
         <v>45617</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>6</v>
       </c>
@@ -2930,7 +2902,7 @@
         <v>45622</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>8</v>
       </c>
@@ -2953,7 +2925,7 @@
         <v>45622</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>9</v>
       </c>
@@ -2976,7 +2948,7 @@
         <v>45622</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>5</v>
       </c>
@@ -2999,7 +2971,7 @@
         <v>45622</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -3022,7 +2994,7 @@
         <v>45622</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>6</v>
       </c>
@@ -3045,7 +3017,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>8</v>
       </c>
@@ -3068,7 +3040,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>9</v>
       </c>
@@ -3091,7 +3063,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>5</v>
       </c>
@@ -3114,7 +3086,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -3137,7 +3109,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>10</v>
       </c>
@@ -3160,7 +3132,7 @@
         <v>45624</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>6</v>
       </c>
@@ -3183,7 +3155,7 @@
         <v>45629</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>8</v>
       </c>
@@ -3206,7 +3178,7 @@
         <v>45629</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>9</v>
       </c>
@@ -3229,7 +3201,7 @@
         <v>45629</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>5</v>
       </c>
@@ -3252,7 +3224,7 @@
         <v>45629</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>6</v>
       </c>
@@ -3275,7 +3247,7 @@
         <v>45636</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>8</v>
       </c>
@@ -3298,7 +3270,7 @@
         <v>45636</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>9</v>
       </c>
@@ -3321,7 +3293,7 @@
         <v>45636</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>5</v>
       </c>
@@ -3344,7 +3316,7 @@
         <v>45636</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>6</v>
       </c>
@@ -3367,7 +3339,7 @@
         <v>45636</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>8</v>
       </c>
@@ -3390,7 +3362,7 @@
         <v>45636</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>9</v>
       </c>
@@ -3413,7 +3385,7 @@
         <v>45636</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>5</v>
       </c>
@@ -3436,7 +3408,7 @@
         <v>45636</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>7</v>
       </c>
@@ -3459,7 +3431,7 @@
         <v>45636</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>10</v>
       </c>
@@ -3482,7 +3454,7 @@
         <v>45636</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>6</v>
       </c>
@@ -3505,7 +3477,7 @@
         <v>45613</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>9</v>
       </c>
@@ -3528,7 +3500,7 @@
         <v>45613</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>5</v>
       </c>
@@ -3551,7 +3523,7 @@
         <v>45613</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>7</v>
       </c>
@@ -3574,7 +3546,7 @@
         <v>45613</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>6</v>
       </c>
@@ -3597,7 +3569,7 @@
         <v>45667</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>8</v>
       </c>
@@ -3620,7 +3592,7 @@
         <v>45667</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>9</v>
       </c>
@@ -3643,7 +3615,7 @@
         <v>45667</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>5</v>
       </c>
@@ -3666,7 +3638,7 @@
         <v>45667</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>7</v>
       </c>
@@ -3689,7 +3661,7 @@
         <v>45667</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>10</v>
       </c>
@@ -3712,7 +3684,7 @@
         <v>45667</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>6</v>
       </c>
@@ -3735,7 +3707,7 @@
         <v>45637</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>8</v>
       </c>
@@ -3758,7 +3730,7 @@
         <v>45637</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>9</v>
       </c>
@@ -3781,7 +3753,7 @@
         <v>45637</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>5</v>
       </c>
@@ -3804,7 +3776,7 @@
         <v>45637</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>7</v>
       </c>
@@ -3827,7 +3799,7 @@
         <v>45637</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>10</v>
       </c>
@@ -3850,7 +3822,7 @@
         <v>45637</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>6</v>
       </c>
@@ -3873,7 +3845,7 @@
         <v>45643</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>8</v>
       </c>
@@ -3896,7 +3868,7 @@
         <v>45643</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>9</v>
       </c>
@@ -3919,7 +3891,7 @@
         <v>45643</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>5</v>
       </c>
@@ -3942,7 +3914,7 @@
         <v>45643</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>7</v>
       </c>
@@ -3965,7 +3937,7 @@
         <v>45643</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>10</v>
       </c>
@@ -3988,7 +3960,7 @@
         <v>45643</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>6</v>
       </c>
@@ -4011,7 +3983,7 @@
         <v>45688</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>9</v>
       </c>
@@ -4034,7 +4006,7 @@
         <v>45675</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>10</v>
       </c>
@@ -4057,7 +4029,7 @@
         <v>45675</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>9</v>
       </c>
@@ -4080,7 +4052,7 @@
         <v>45685</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>6</v>
       </c>
@@ -4103,7 +4075,7 @@
         <v>45678</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>8</v>
       </c>
@@ -4126,7 +4098,7 @@
         <v>45678</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>9</v>
       </c>
@@ -4149,7 +4121,7 @@
         <v>45678</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>5</v>
       </c>
@@ -4172,7 +4144,7 @@
         <v>45678</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>7</v>
       </c>
@@ -4195,7 +4167,7 @@
         <v>45678</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>6</v>
       </c>
@@ -4218,7 +4190,7 @@
         <v>45685</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>8</v>
       </c>
@@ -4241,7 +4213,7 @@
         <v>45685</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>9</v>
       </c>
@@ -4264,7 +4236,7 @@
         <v>45685</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>5</v>
       </c>
@@ -4287,7 +4259,7 @@
         <v>45685</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>7</v>
       </c>
@@ -4310,7 +4282,7 @@
         <v>45685</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>10</v>
       </c>
@@ -4333,7 +4305,7 @@
         <v>45685</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>6</v>
       </c>
@@ -4356,7 +4328,7 @@
         <v>45671</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>9</v>
       </c>
@@ -4379,7 +4351,7 @@
         <v>45671</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>10</v>
       </c>
@@ -4402,7 +4374,7 @@
         <v>45671</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>8</v>
       </c>
@@ -4425,7 +4397,7 @@
         <v>45675</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>10</v>
       </c>
@@ -4448,7 +4420,7 @@
         <v>45576</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>5</v>
       </c>
@@ -4471,7 +4443,7 @@
         <v>45576</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>5</v>
       </c>
@@ -4491,10 +4463,10 @@
         <v>105</v>
       </c>
       <c r="G167" s="1">
-        <v>46002</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
+        <v>45637</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>9</v>
       </c>
@@ -4517,7 +4489,7 @@
         <v>45686</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>9</v>
       </c>
@@ -4540,7 +4512,7 @@
         <v>45678</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>6</v>
       </c>
@@ -4563,7 +4535,7 @@
         <v>45631</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>8</v>
       </c>
@@ -4586,7 +4558,7 @@
         <v>45631</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>9</v>
       </c>
@@ -4609,7 +4581,7 @@
         <v>45631</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>5</v>
       </c>
@@ -4632,7 +4604,7 @@
         <v>45631</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>7</v>
       </c>
@@ -4655,7 +4627,7 @@
         <v>45631</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>10</v>
       </c>
@@ -4775,17 +4747,17 @@
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.06640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.9296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.46484375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.46484375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>109</v>
       </c>
@@ -4814,7 +4786,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -4843,11 +4815,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>57</v>
       </c>
       <c r="C3">
@@ -4862,7 +4834,7 @@
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3">
         <v>532555.1</v>
       </c>
       <c r="H3">
@@ -4872,11 +4844,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>58</v>
       </c>
       <c r="C4">
@@ -4891,7 +4863,7 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4">
         <v>64170</v>
       </c>
       <c r="H4">
@@ -4901,11 +4873,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>59</v>
       </c>
       <c r="C5">
@@ -4920,7 +4892,7 @@
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5">
         <v>24121.25</v>
       </c>
       <c r="H5">
@@ -4930,11 +4902,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>60</v>
       </c>
       <c r="C6">
@@ -4949,7 +4921,7 @@
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6">
         <v>186840.65</v>
       </c>
       <c r="H6">
@@ -4959,11 +4931,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" t="s">
         <v>56</v>
       </c>
       <c r="C7">
@@ -4975,27 +4947,27 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7">
         <v>2</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="3">
         <v>10000</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="3">
         <v>6500</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
@@ -5004,27 +4976,27 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8">
         <v>5</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="3">
         <v>12000</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="3">
         <v>8000</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
@@ -5033,27 +5005,27 @@
       <c r="E9">
         <v>4</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9">
         <v>5</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="3">
         <v>8000</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="3">
         <v>6500</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
@@ -5062,27 +5034,27 @@
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="3">
         <v>7500</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="3">
         <v>6500</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
@@ -5091,268 +5063,268 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11">
         <v>4</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="3">
         <v>4000</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="3">
         <v>3500</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" t="s">
         <v>56</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="3">
         <v>43</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="3">
         <v>80</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="3">
         <v>44</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="6">
         <v>1214523.5899999999</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="5">
         <v>824567</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" t="s">
         <v>57</v>
       </c>
       <c r="C13">
         <v>5</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="3">
         <v>42</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="3">
         <v>82</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="3">
         <v>42</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="6">
         <v>1640729.15</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="5">
         <v>923456</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="3">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" t="s">
         <v>58</v>
       </c>
       <c r="C14">
         <v>5</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="3">
         <v>64</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="3">
         <v>101</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="3">
         <v>66</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="6">
         <v>2530635.9500000002</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="5">
         <v>1214533</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" t="s">
         <v>59</v>
       </c>
       <c r="C15">
         <v>6</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="3">
         <v>73</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="3">
         <v>99</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="3">
         <v>76</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="6">
         <v>1462182.68</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="5">
         <v>867345</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" t="s">
         <v>60</v>
       </c>
       <c r="C16">
         <v>6</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="3">
         <v>56</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="3">
         <v>65</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="3">
         <v>56</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="6">
         <v>1106837.75</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="5">
         <v>678465</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" t="s">
         <v>56</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="7">
         <v>0</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="7">
         <v>0</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="7">
         <v>0</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="8">
         <v>0</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="9">
         <v>0</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" s="15" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="7">
         <v>0</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="7">
         <v>1</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="7">
         <v>1</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="8">
         <v>0</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="9">
         <v>0</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A19" s="15" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="7">
         <v>1</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="7">
         <v>4</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="7">
         <v>0</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="8">
         <v>0</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="9">
         <v>0</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A20" s="15" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="7">
         <v>1</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="7">
         <v>5</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="7">
         <v>1</v>
       </c>
       <c r="G20" t="s">
@@ -5361,326 +5333,326 @@
       <c r="H20" t="s">
         <v>118</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A21" s="15" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="7">
         <v>0</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="7">
         <v>1</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="7">
         <v>1</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="4">
         <v>0</v>
       </c>
       <c r="H21" t="s">
         <v>119</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A22" s="15" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" t="s">
         <v>56</v>
       </c>
       <c r="C22">
         <v>4</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="7">
         <v>2</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="7">
         <v>6</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="7">
         <v>0</v>
       </c>
-      <c r="G22" s="19" t="s">
+      <c r="G22" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="H22" s="24">
+      <c r="H22" s="10">
         <v>25000</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A23" s="15" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" t="s">
         <v>57</v>
       </c>
       <c r="C23">
         <v>4</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="7">
         <v>1</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="7">
         <v>4</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="7">
         <v>0</v>
       </c>
-      <c r="G23" s="20">
+      <c r="G23" s="10">
         <v>18000</v>
       </c>
-      <c r="H23" s="23" t="s">
+      <c r="H23" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I23" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A24" s="15" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" t="s">
         <v>58</v>
       </c>
       <c r="C24">
         <v>3</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="7">
         <v>2</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="7">
         <v>7</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="7">
         <v>0</v>
       </c>
-      <c r="G24" s="20">
+      <c r="G24" s="10">
         <v>14900</v>
       </c>
-      <c r="H24" s="24">
+      <c r="H24" s="10">
         <v>25000</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A25" s="15" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" t="s">
         <v>59</v>
       </c>
       <c r="C25">
         <v>3</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="7">
         <v>3</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="7">
         <v>6</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="7">
         <v>0</v>
       </c>
-      <c r="G25" s="20">
+      <c r="G25" s="10">
         <v>21300</v>
       </c>
-      <c r="H25" s="24">
+      <c r="H25" s="10">
         <v>25000</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I25" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A26" s="15" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" t="s">
         <v>60</v>
       </c>
       <c r="C26">
         <v>3</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="7">
         <v>6</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="7">
         <v>10</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="7">
         <v>0</v>
       </c>
-      <c r="G26" s="20">
+      <c r="G26" s="10">
         <v>40000</v>
       </c>
-      <c r="H26" s="24">
+      <c r="H26" s="10">
         <v>25000</v>
       </c>
-      <c r="I26" s="11">
+      <c r="I26" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A27" s="22" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" t="s">
         <v>56</v>
       </c>
       <c r="C27">
         <v>4</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="7">
         <v>1</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="7">
         <v>1</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="7">
         <v>0</v>
       </c>
-      <c r="G27" s="21">
+      <c r="G27" s="11">
         <v>300000</v>
       </c>
-      <c r="H27" s="21">
+      <c r="H27" s="11">
         <v>2950000</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I27" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A28" s="22" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" t="s">
         <v>57</v>
       </c>
       <c r="C28">
         <v>4</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="7">
         <v>1</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="7">
         <v>2</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="7">
         <v>1</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G28" s="11">
         <v>350000</v>
       </c>
-      <c r="H28" s="21">
+      <c r="H28" s="11">
         <v>330000</v>
       </c>
-      <c r="I28" s="11">
+      <c r="I28" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A29" s="22" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" t="s">
         <v>58</v>
       </c>
       <c r="C29">
         <v>4</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="7">
         <v>1</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="7">
         <v>3</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="7">
         <v>0</v>
       </c>
-      <c r="G29" s="21">
+      <c r="G29" s="11">
         <v>350000</v>
       </c>
-      <c r="H29" s="21">
+      <c r="H29" s="11">
         <v>344000</v>
       </c>
-      <c r="I29" s="11">
+      <c r="I29" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A30" s="22" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" t="s">
         <v>59</v>
       </c>
       <c r="C30">
         <v>4</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="7">
         <v>1</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="7">
         <v>3</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="7">
         <v>2</v>
       </c>
-      <c r="G30" s="21">
+      <c r="G30" s="11">
         <v>300000</v>
       </c>
-      <c r="H30" s="21">
+      <c r="H30" s="11">
         <v>215000</v>
       </c>
-      <c r="I30" s="11">
+      <c r="I30" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A31" s="22" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" t="s">
         <v>60</v>
       </c>
       <c r="C31">
         <v>4</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="7">
         <v>1</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="7">
         <v>3</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="7">
         <v>1</v>
       </c>
-      <c r="G31" s="21">
+      <c r="G31" s="11">
         <v>400000</v>
       </c>
-      <c r="H31" s="21">
+      <c r="H31" s="11">
         <v>378000</v>
       </c>
-      <c r="I31" s="11">
+      <c r="I31" s="7">
         <v>1</v>
       </c>
     </row>
@@ -5697,13 +5669,13 @@
       <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="21.06640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.53125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>11</v>
       </c>
@@ -5717,7 +5689,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -5737,7 +5709,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -5757,7 +5729,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -5771,7 +5743,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -5785,7 +5757,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -5799,7 +5771,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -5813,7 +5785,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>65</v>
       </c>
@@ -5824,7 +5796,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>46</v>
       </c>
@@ -5835,7 +5807,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>61</v>
       </c>
@@ -5846,7 +5818,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>68</v>
       </c>
@@ -5857,7 +5829,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>100</v>
       </c>
@@ -5868,7 +5840,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
         <v>33</v>
       </c>
@@ -5876,152 +5848,152 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E26" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E27" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E28" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E29" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E33" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E34" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E35" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E36" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E37" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E38" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E39" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E40" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E41" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E42" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E43" t="s">
         <v>102</v>
       </c>

--- a/Intervention_Database-1.xlsx
+++ b/Intervention_Database-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\Quant-Files\epont-dash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306E39BF-4D16-4DF3-9A60-E43ECA1E8C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184E15E5-E8D3-4E12-837D-BC206A5DBCB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{0F3DE8D1-45ED-49E4-AA5E-3BAC350054F1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{0F3DE8D1-45ED-49E4-AA5E-3BAC350054F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Interventions" sheetId="1" r:id="rId1"/>
@@ -827,7 +827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB2DF10-A93B-4C26-B09D-470F68807D71}">
   <dimension ref="A1:G175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G168" sqref="G168"/>
     </sheetView>
@@ -4743,8 +4743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB2F648E-EAC1-46A7-8947-3473E82AB6B3}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4823,7 +4823,7 @@
         <v>57</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -4910,7 +4910,7 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -5534,7 +5534,7 @@
         <v>300000</v>
       </c>
       <c r="H27" s="11">
-        <v>2950000</v>
+        <v>295000</v>
       </c>
       <c r="I27" s="7">
         <v>1</v>
